--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3137563.856308203</v>
+        <v>3136837.257436977</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5851605.615330305</v>
+        <v>5851605.615330303</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>864456.6793124476</v>
+        <v>864456.6793124473</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6245802.739068515</v>
+        <v>6245802.739068516</v>
       </c>
     </row>
     <row r="11">
@@ -661,19 +661,19 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>307.054626660725</v>
+        <v>17.83289529214756</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -749,16 +749,16 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F3" t="n">
-        <v>107.8702810193205</v>
+        <v>33.27513377279739</v>
       </c>
       <c r="G3" t="n">
         <v>105.9202115588047</v>
       </c>
       <c r="H3" t="n">
-        <v>56.72027327266376</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>195.3773027531635</v>
@@ -822,7 +822,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
         <v>159.3017069803637</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,16 +867,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>103.2282342481849</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>22.55063026834896</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
@@ -885,7 +885,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4192906078700389</v>
+        <v>388.6597985499425</v>
       </c>
       <c r="E5" t="n">
         <v>10.19681332827224</v>
@@ -913,10 +913,10 @@
         <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>60.1955200936066</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>138.9000023092309</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C6" t="n">
         <v>132.6551205385437</v>
@@ -983,7 +983,7 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E6" t="n">
-        <v>119.2878878475953</v>
+        <v>119.2878878475954</v>
       </c>
       <c r="F6" t="n">
         <v>107.8702810193205</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>2.517419126007176</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
@@ -1104,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>129.0638484442158</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>185.9569053203822</v>
       </c>
       <c r="C8" t="n">
         <v>6.023344779862555</v>
@@ -1144,10 +1144,10 @@
         <v>10.19681332827224</v>
       </c>
       <c r="F8" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>327.4077742243226</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>113.6794429932544</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>194.8854244396296</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C11" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D11" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E11" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F11" t="n">
         <v>387.3211661995113</v>
@@ -1387,10 +1387,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H11" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I11" t="n">
-        <v>55.98930332975952</v>
+        <v>55.98930332975958</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T11" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U11" t="n">
-        <v>224.9909450967469</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V11" t="n">
         <v>316.8402373905461</v>
@@ -1435,7 +1435,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X11" t="n">
-        <v>367.1380221263989</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y11" t="n">
         <v>367.4283645950528</v>
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>139.8834969875626</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G13" t="n">
         <v>136.078945437374</v>
       </c>
       <c r="H13" t="n">
-        <v>60.68023119038425</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>85.68364371037904</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.92104941501629</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U13" t="n">
-        <v>250.471224252999</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V13" t="n">
-        <v>241.6479458835352</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W13" t="n">
-        <v>246.7800261198763</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X13" t="n">
-        <v>206.4614817925754</v>
+        <v>93.76478661231492</v>
       </c>
       <c r="Y13" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1612,10 +1612,10 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D14" t="n">
-        <v>370.9203488815327</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E14" t="n">
-        <v>380.6978716019343</v>
+        <v>380.697871601935</v>
       </c>
       <c r="F14" t="n">
         <v>387.3211661995113</v>
@@ -1627,7 +1627,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I14" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975958</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>128.4007565039811</v>
+        <v>65.2583535500231</v>
       </c>
       <c r="E16" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>133.4858729041767</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>155.0289087125508</v>
@@ -1827,13 +1827,13 @@
         <v>241.6479458835353</v>
       </c>
       <c r="W16" t="n">
-        <v>222.2247879617473</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I17" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975958</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,10 +1900,10 @@
         <v>190.4854774862718</v>
       </c>
       <c r="U17" t="n">
-        <v>224.9909450967475</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V17" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905467</v>
       </c>
       <c r="W17" t="n">
         <v>350.4237561298451</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>33.12209635668106</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S19" t="n">
-        <v>144.5505276100953</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U19" t="n">
         <v>250.4712242529991</v>
@@ -2098,7 +2098,7 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H20" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722222</v>
       </c>
       <c r="I20" t="n">
         <v>55.98930332975957</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>156.323767603766</v>
+        <v>37.98872967867193</v>
       </c>
       <c r="C22" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>129.8027652540257</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>155.0289087125508</v>
       </c>
       <c r="T22" t="n">
-        <v>93.1606117708378</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V22" t="n">
         <v>241.6479458835353</v>
@@ -2307,7 +2307,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y22" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I23" t="n">
-        <v>55.98930332976053</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2478,22 +2478,22 @@
         <v>156.323767603766</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>66.44139541920886</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E25" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>132.5166768177565</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U25" t="n">
         <v>250.4712242529991</v>
@@ -2541,7 +2541,7 @@
         <v>246.7800261198764</v>
       </c>
       <c r="X25" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>192.9893998987849</v>
@@ -2575,7 +2575,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I26" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975958</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2718,13 +2718,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>136.078945437374</v>
@@ -2733,7 +2733,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I28" t="n">
-        <v>85.6836437103791</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>54.92104941501635</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S28" t="n">
-        <v>155.0289087125508</v>
+        <v>4.099744608984911</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V28" t="n">
-        <v>157.1549212775119</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W28" t="n">
         <v>246.7800261198764</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>376.6200261415078</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C29" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D29" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E29" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F29" t="n">
         <v>387.3211661995113</v>
@@ -2809,10 +2809,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H29" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I29" t="n">
-        <v>55.98930332975952</v>
+        <v>55.98930332975958</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T29" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U29" t="n">
-        <v>224.9909450967469</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V29" t="n">
         <v>316.8402373905461</v>
@@ -2857,7 +2857,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X29" t="n">
-        <v>367.1380221263989</v>
+        <v>367.1380221263995</v>
       </c>
       <c r="Y29" t="n">
         <v>367.4283645950528</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>156.3237676037659</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C31" t="n">
-        <v>139.8834969875626</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D31" t="n">
-        <v>128.400756503981</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E31" t="n">
         <v>129.8027652540257</v>
       </c>
       <c r="F31" t="n">
-        <v>133.4858729041766</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G31" t="n">
         <v>136.078945437374</v>
@@ -2970,7 +2970,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I31" t="n">
-        <v>85.68364371037904</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>70.89761481375137</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>246.7800261198763</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>206.4614817925754</v>
+        <v>161.4559041069246</v>
       </c>
       <c r="Y31" t="n">
         <v>192.9893998987849</v>
@@ -3049,7 +3049,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I32" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975958</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>128.4007565039811</v>
@@ -3207,7 +3207,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I34" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T34" t="n">
         <v>207.6543099067269</v>
       </c>
       <c r="U34" t="n">
-        <v>250.4712242529991</v>
+        <v>95.23738473252152</v>
       </c>
       <c r="V34" t="n">
         <v>241.6479458835353</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y34" t="n">
-        <v>173.6788101854921</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="35">
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C35" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D35" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E35" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F35" t="n">
         <v>387.3211661995113</v>
@@ -3283,10 +3283,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H35" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I35" t="n">
-        <v>55.98930332975952</v>
+        <v>55.98930332975958</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T35" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U35" t="n">
-        <v>224.9909450967469</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V35" t="n">
         <v>316.8402373905461</v>
@@ -3331,7 +3331,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X35" t="n">
-        <v>367.1380221263989</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y35" t="n">
         <v>367.4283645950528</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>156.3237676037659</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C37" t="n">
-        <v>139.8834969875626</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D37" t="n">
-        <v>128.400756503981</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>129.8027652540257</v>
       </c>
       <c r="F37" t="n">
-        <v>133.4858729041766</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G37" t="n">
         <v>136.078945437374</v>
@@ -3444,7 +3444,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I37" t="n">
-        <v>85.68364371037904</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.89761481375137</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3483,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>44.26946260518065</v>
       </c>
       <c r="W37" t="n">
-        <v>246.7800261198763</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X37" t="n">
-        <v>206.4614817925754</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y37" t="n">
         <v>192.9893998987849</v>
@@ -3523,7 +3523,7 @@
         <v>278.3004706722211</v>
       </c>
       <c r="I38" t="n">
-        <v>55.98930332975952</v>
+        <v>55.98930332975951</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D40" t="n">
-        <v>116.5535531678331</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E40" t="n">
         <v>129.8027652540257</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G40" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>54.92104941501629</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>250.471224252999</v>
@@ -3729,7 +3729,7 @@
         <v>206.4614817925754</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>112.1428726400149</v>
       </c>
     </row>
     <row r="41">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>406.1189678678445</v>
       </c>
       <c r="C41" t="n">
-        <v>183.5236380974013</v>
+        <v>406.0233447798625</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
@@ -3751,16 +3751,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>416.8201079258492</v>
       </c>
       <c r="G41" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>307.7994123985591</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>85.4882450560975</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>88.0811024115079</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126097</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>254.4898868230849</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>379.922697856183</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>396.9273063213907</v>
       </c>
     </row>
     <row r="42">
@@ -3903,13 +3903,13 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3957,16 +3957,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>85.58392852069775</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>122.4644059438883</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>406.1189678678445</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>406.0233447798625</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>43.42340976889769</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>416.8201079258492</v>
       </c>
       <c r="G44" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>307.7994123985591</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126097</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>254.4898868230849</v>
       </c>
       <c r="V44" t="n">
-        <v>123.8394724344234</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>379.922697856183</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>396.6369638527369</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>396.9273063213907</v>
       </c>
     </row>
     <row r="45">
@@ -4137,13 +4137,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>133.5470574896208</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
@@ -4197,13 +4197,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>182.9658461469756</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>782.1605112683617</v>
+        <v>1702.138560391011</v>
       </c>
       <c r="C2" t="n">
-        <v>776.0763246220358</v>
+        <v>1292.013969704281</v>
       </c>
       <c r="D2" t="n">
-        <v>775.6527987555004</v>
+        <v>887.5500397973415</v>
       </c>
       <c r="E2" t="n">
-        <v>765.3529873128011</v>
+        <v>473.2098243142382</v>
       </c>
       <c r="F2" t="n">
-        <v>344.3225752664887</v>
+        <v>52.17941226792573</v>
       </c>
       <c r="G2" t="n">
-        <v>34.16638672030175</v>
+        <v>34.16638672030193</v>
       </c>
       <c r="H2" t="n">
-        <v>34.16638672030175</v>
+        <v>34.16638672030193</v>
       </c>
       <c r="I2" t="n">
-        <v>34.16638672030175</v>
+        <v>34.16638672030193</v>
       </c>
       <c r="J2" t="n">
-        <v>34.16638672030175</v>
+        <v>288.3518581880562</v>
       </c>
       <c r="K2" t="n">
-        <v>34.16638672030175</v>
+        <v>711.1608938517925</v>
       </c>
       <c r="L2" t="n">
-        <v>456.9754223840359</v>
+        <v>1133.969929515529</v>
       </c>
       <c r="M2" t="n">
-        <v>879.7844580477702</v>
+        <v>1346.601683530239</v>
       </c>
       <c r="N2" t="n">
-        <v>1302.593493711504</v>
+        <v>1346.601683530239</v>
       </c>
       <c r="O2" t="n">
-        <v>1708.319336015088</v>
+        <v>1346.601683530239</v>
       </c>
       <c r="P2" t="n">
-        <v>1708.319336015088</v>
+        <v>1346.601683530239</v>
       </c>
       <c r="Q2" t="n">
-        <v>1708.319336015088</v>
+        <v>1667.762690325531</v>
       </c>
       <c r="R2" t="n">
-        <v>1708.319336015088</v>
+        <v>1708.319336015096</v>
       </c>
       <c r="S2" t="n">
-        <v>1573.038260809188</v>
+        <v>1708.319336015096</v>
       </c>
       <c r="T2" t="n">
-        <v>1573.038260809188</v>
+        <v>1708.319336015096</v>
       </c>
       <c r="U2" t="n">
-        <v>1573.038260809188</v>
+        <v>1708.319336015096</v>
       </c>
       <c r="V2" t="n">
-        <v>1573.038260809188</v>
+        <v>1708.319336015096</v>
       </c>
       <c r="W2" t="n">
-        <v>1189.277959944357</v>
+        <v>1708.319336015096</v>
       </c>
       <c r="X2" t="n">
-        <v>1189.277959944357</v>
+        <v>1708.319336015096</v>
       </c>
       <c r="Y2" t="n">
-        <v>788.3412868924471</v>
+        <v>1708.319336015096</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>448.6509919368133</v>
+        <v>500.0028458641224</v>
       </c>
       <c r="C3" t="n">
-        <v>448.6509919368133</v>
+        <v>366.0077746130681</v>
       </c>
       <c r="D3" t="n">
-        <v>448.6509919368133</v>
+        <v>366.0077746130681</v>
       </c>
       <c r="E3" t="n">
-        <v>328.1581759291413</v>
+        <v>245.5149586053961</v>
       </c>
       <c r="F3" t="n">
-        <v>219.1982961116459</v>
+        <v>211.9037123702472</v>
       </c>
       <c r="G3" t="n">
-        <v>112.2081834259846</v>
+        <v>104.9135996845859</v>
       </c>
       <c r="H3" t="n">
-        <v>54.91497810006157</v>
+        <v>34.16638672030193</v>
       </c>
       <c r="I3" t="n">
-        <v>34.16638672030175</v>
+        <v>34.16638672030193</v>
       </c>
       <c r="J3" t="n">
-        <v>226.979244282935</v>
+        <v>226.9792442829352</v>
       </c>
       <c r="K3" t="n">
-        <v>649.7882799466691</v>
+        <v>649.7882799466715</v>
       </c>
       <c r="L3" t="n">
-        <v>649.7882799466691</v>
+        <v>649.7882799466715</v>
       </c>
       <c r="M3" t="n">
-        <v>906.1063163047399</v>
+        <v>649.7882799466715</v>
       </c>
       <c r="N3" t="n">
-        <v>906.1063163047399</v>
+        <v>649.7882799466715</v>
       </c>
       <c r="O3" t="n">
-        <v>1328.915351968474</v>
+        <v>1072.597315610408</v>
       </c>
       <c r="P3" t="n">
-        <v>1328.915351968474</v>
+        <v>1328.915351968483</v>
       </c>
       <c r="Q3" t="n">
-        <v>1678.759816652458</v>
+        <v>1678.759816652466</v>
       </c>
       <c r="R3" t="n">
-        <v>1708.319336015088</v>
+        <v>1708.319336015096</v>
       </c>
       <c r="S3" t="n">
-        <v>1708.319336015088</v>
+        <v>1600.329326129405</v>
       </c>
       <c r="T3" t="n">
-        <v>1548.977472202096</v>
+        <v>1600.329326129405</v>
       </c>
       <c r="U3" t="n">
-        <v>1351.626661340315</v>
+        <v>1402.978515267624</v>
       </c>
       <c r="V3" t="n">
-        <v>1137.915134333348</v>
+        <v>1189.266988260657</v>
       </c>
       <c r="W3" t="n">
-        <v>924.6819660696771</v>
+        <v>976.0338199969862</v>
       </c>
       <c r="X3" t="n">
-        <v>748.3559842085699</v>
+        <v>799.707838135879</v>
       </c>
       <c r="Y3" t="n">
-        <v>588.9540245723999</v>
+        <v>640.305878499709</v>
       </c>
     </row>
     <row r="4">
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>482.5166201859396</v>
+        <v>525.6652189673559</v>
       </c>
       <c r="C4" t="n">
-        <v>311.4232477476561</v>
+        <v>354.5718465290724</v>
       </c>
       <c r="D4" t="n">
-        <v>311.4232477476561</v>
+        <v>195.0772018519825</v>
       </c>
       <c r="E4" t="n">
-        <v>150.5124326159756</v>
+        <v>34.16638672030193</v>
       </c>
       <c r="F4" t="n">
-        <v>150.5124326159756</v>
+        <v>34.16638672030193</v>
       </c>
       <c r="G4" t="n">
-        <v>150.5124326159756</v>
+        <v>34.16638672030193</v>
       </c>
       <c r="H4" t="n">
-        <v>150.5124326159756</v>
+        <v>34.16638672030193</v>
       </c>
       <c r="I4" t="n">
-        <v>34.16638672030175</v>
+        <v>34.16638672030193</v>
       </c>
       <c r="J4" t="n">
-        <v>48.24893612551227</v>
+        <v>48.24893612551245</v>
       </c>
       <c r="K4" t="n">
-        <v>202.8012638477502</v>
+        <v>202.8012638477504</v>
       </c>
       <c r="L4" t="n">
-        <v>462.6983641278108</v>
+        <v>462.698364127811</v>
       </c>
       <c r="M4" t="n">
-        <v>751.9624205683041</v>
+        <v>751.9624205683042</v>
       </c>
       <c r="N4" t="n">
         <v>1032.801202962554</v>
       </c>
       <c r="O4" t="n">
-        <v>1292.361813289028</v>
+        <v>1292.361813289029</v>
       </c>
       <c r="P4" t="n">
         <v>1498.037253538641</v>
@@ -4512,28 +4512,28 @@
         <v>1563.565283341152</v>
       </c>
       <c r="R4" t="n">
-        <v>1478.292565016551</v>
+        <v>1478.292565016552</v>
       </c>
       <c r="S4" t="n">
-        <v>1291.900796896462</v>
+        <v>1478.292565016552</v>
       </c>
       <c r="T4" t="n">
-        <v>1187.629853211426</v>
+        <v>1478.292565016552</v>
       </c>
       <c r="U4" t="n">
-        <v>1187.629853211426</v>
+        <v>1478.292565016552</v>
       </c>
       <c r="V4" t="n">
-        <v>1187.629853211426</v>
+        <v>1455.514150604078</v>
       </c>
       <c r="W4" t="n">
-        <v>908.5601887203006</v>
+        <v>1176.444486112952</v>
       </c>
       <c r="X4" t="n">
-        <v>670.216326579984</v>
+        <v>938.1006239726356</v>
       </c>
       <c r="Y4" t="n">
-        <v>670.216326579984</v>
+        <v>713.3649253614003</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>477.5107577130435</v>
+        <v>876.4530309326553</v>
       </c>
       <c r="C5" t="n">
-        <v>471.4265710667177</v>
+        <v>466.3284402459254</v>
       </c>
       <c r="D5" t="n">
-        <v>471.0030452001823</v>
+        <v>73.74278514497341</v>
       </c>
       <c r="E5" t="n">
-        <v>460.703233757483</v>
+        <v>63.44297370227418</v>
       </c>
       <c r="F5" t="n">
-        <v>443.7132257515746</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G5" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>216.5644706858345</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>216.5644706858345</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>733.4074053521598</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M5" t="n">
-        <v>1250.250340018485</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N5" t="n">
-        <v>1767.09327468481</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O5" t="n">
-        <v>1767.09327468481</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P5" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>1892.169650624095</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>1635.109158883605</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V5" t="n">
-        <v>1285.271604220086</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W5" t="n">
-        <v>1285.271604220086</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X5" t="n">
-        <v>884.6282063890387</v>
+        <v>1687.610883649055</v>
       </c>
       <c r="Y5" t="n">
-        <v>483.6915333371289</v>
+        <v>1286.674210597145</v>
       </c>
     </row>
     <row r="6">
@@ -4622,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
         <v>349.2108824768026</v>
@@ -4649,22 +4649,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>41.76508562960205</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L6" t="n">
-        <v>508.1659581184966</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M6" t="n">
-        <v>1025.008892784822</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="N6" t="n">
-        <v>1541.851827451147</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O6" t="n">
-        <v>2058.694762117472</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P6" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
         <v>2058.694762117472</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>365.0087608644563</v>
+        <v>1014.752890035065</v>
       </c>
       <c r="C7" t="n">
-        <v>193.9153884261729</v>
+        <v>843.6595175967814</v>
       </c>
       <c r="D7" t="n">
-        <v>193.9153884261729</v>
+        <v>684.1648729196913</v>
       </c>
       <c r="E7" t="n">
-        <v>193.9153884261729</v>
+        <v>523.2540577880108</v>
       </c>
       <c r="F7" t="n">
-        <v>193.9153884261729</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G7" t="n">
         <v>191.3725408241454</v>
@@ -4752,25 +4752,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>1101.974066676486</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>828.0883216160082</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>828.0883216160082</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X7" t="n">
-        <v>589.7444594756917</v>
+        <v>1332.820120110135</v>
       </c>
       <c r="Y7" t="n">
-        <v>365.0087608644563</v>
+        <v>1202.452596429109</v>
       </c>
     </row>
     <row r="8">
@@ -4792,7 +4792,7 @@
         <v>467.4833777426783</v>
       </c>
       <c r="F8" t="n">
-        <v>450.4933697367699</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G8" t="n">
         <v>41.76508562960205</v>
@@ -4804,22 +4804,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L8" t="n">
-        <v>1075.450954962253</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M8" t="n">
-        <v>1592.293889628578</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N8" t="n">
-        <v>2088.254281480102</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="O8" t="n">
-        <v>2088.254281480102</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="P8" t="n">
         <v>2088.254281480102</v>
@@ -4831,25 +4831,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>1866.047797426961</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U8" t="n">
-        <v>1608.987305686471</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V8" t="n">
-        <v>1608.987305686471</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W8" t="n">
-        <v>1225.22700482164</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="X8" t="n">
-        <v>894.5120813627282</v>
+        <v>1073.062832649525</v>
       </c>
       <c r="Y8" t="n">
-        <v>894.5120813627282</v>
+        <v>672.1261595976147</v>
       </c>
     </row>
     <row r="9">
@@ -4886,25 +4886,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K9" t="n">
-        <v>187.8810127971431</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L9" t="n">
-        <v>704.7239474634683</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M9" t="n">
-        <v>704.7239474634683</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N9" t="n">
-        <v>704.7239474634683</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O9" t="n">
-        <v>1221.566882129794</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P9" t="n">
-        <v>1738.409816796119</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>350.8671855012354</v>
+        <v>920.3847151048558</v>
       </c>
       <c r="C10" t="n">
-        <v>350.8671855012354</v>
+        <v>749.2913426665723</v>
       </c>
       <c r="D10" t="n">
-        <v>191.3725408241454</v>
+        <v>589.7966979894823</v>
       </c>
       <c r="E10" t="n">
-        <v>191.3725408241454</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="F10" t="n">
-        <v>191.3725408241454</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G10" t="n">
-        <v>191.3725408241454</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4986,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U10" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V10" t="n">
-        <v>786.0650117219859</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W10" t="n">
-        <v>786.0650117219859</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X10" t="n">
-        <v>547.7211495816694</v>
+        <v>1332.820120110135</v>
       </c>
       <c r="Y10" t="n">
-        <v>350.8671855012354</v>
+        <v>1108.0844214989</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2340.613014133289</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C11" t="n">
-        <v>1960.285334281244</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D11" t="n">
-        <v>1585.61831520899</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E11" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F11" t="n">
-        <v>809.8415093489443</v>
+        <v>809.8415093489457</v>
       </c>
       <c r="G11" t="n">
-        <v>430.9101360764616</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H11" t="n">
-        <v>149.7985495388647</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
@@ -5071,22 +5071,22 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T11" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U11" t="n">
-        <v>4137.027566035663</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V11" t="n">
-        <v>3816.986922206828</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W11" t="n">
-        <v>3463.023532176681</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X11" t="n">
-        <v>3092.177045180319</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y11" t="n">
-        <v>2721.037282963094</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="12">
@@ -5120,28 +5120,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M12" t="n">
-        <v>886.6708173828915</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N12" t="n">
-        <v>1760.328909494509</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O12" t="n">
-        <v>1760.328909494509</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P12" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q12" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
         <v>2139.732893541123</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>650.9498417105476</v>
+        <v>593.3769896497062</v>
       </c>
       <c r="C13" t="n">
-        <v>509.653380106949</v>
+        <v>452.0805280461075</v>
       </c>
       <c r="D13" t="n">
-        <v>509.653380106949</v>
+        <v>452.0805280461075</v>
       </c>
       <c r="E13" t="n">
-        <v>378.5394758099534</v>
+        <v>452.0805280461075</v>
       </c>
       <c r="F13" t="n">
-        <v>378.5394758099534</v>
+        <v>317.2463129913835</v>
       </c>
       <c r="G13" t="n">
-        <v>241.0859955701817</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="H13" t="n">
-        <v>179.7928327516117</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K13" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L13" t="n">
-        <v>609.3875320253559</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M13" t="n">
-        <v>927.8555407749238</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N13" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O13" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P13" t="n">
         <v>1761.542230672484</v>
@@ -5226,25 +5226,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S13" t="n">
-        <v>1800.798405294154</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T13" t="n">
-        <v>1800.798405294154</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U13" t="n">
-        <v>1547.797168674964</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V13" t="n">
-        <v>1303.70833444917</v>
+        <v>937.361648975152</v>
       </c>
       <c r="W13" t="n">
-        <v>1054.43558079273</v>
+        <v>688.0888953187111</v>
       </c>
       <c r="X13" t="n">
-        <v>845.888629487098</v>
+        <v>593.3769896497062</v>
       </c>
       <c r="Y13" t="n">
-        <v>650.9498417105476</v>
+        <v>593.3769896497062</v>
       </c>
     </row>
     <row r="14">
@@ -5260,7 +5260,7 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D14" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E14" t="n">
         <v>1201.075010560573</v>
@@ -5357,28 +5357,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>754.331869609911</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M15" t="n">
-        <v>754.331869609911</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N15" t="n">
-        <v>844.5103911440685</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O15" t="n">
-        <v>1548.467481689963</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P15" t="n">
-        <v>2110.173374178493</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q15" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R15" t="n">
         <v>2139.732893541123</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>712.8921661855082</v>
+        <v>431.4489218235257</v>
       </c>
       <c r="C16" t="n">
-        <v>712.8921661855082</v>
+        <v>431.4489218235257</v>
       </c>
       <c r="D16" t="n">
-        <v>583.1944323431031</v>
+        <v>365.5313929851185</v>
       </c>
       <c r="E16" t="n">
-        <v>452.0805280461075</v>
+        <v>365.5313929851185</v>
       </c>
       <c r="F16" t="n">
-        <v>317.2463129913835</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="G16" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H16" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
@@ -5460,28 +5460,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R16" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S16" t="n">
-        <v>1644.203548008749</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T16" t="n">
-        <v>1434.451719820136</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U16" t="n">
-        <v>1181.450483200945</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V16" t="n">
-        <v>937.361648975152</v>
+        <v>992.8374564650675</v>
       </c>
       <c r="W16" t="n">
-        <v>712.8921661855082</v>
+        <v>992.8374564650675</v>
       </c>
       <c r="X16" t="n">
-        <v>712.8921661855082</v>
+        <v>784.2905051594357</v>
       </c>
       <c r="Y16" t="n">
-        <v>712.8921661855082</v>
+        <v>589.3517173828852</v>
       </c>
     </row>
     <row r="17">
@@ -5548,7 +5548,7 @@
         <v>4364.291146941469</v>
       </c>
       <c r="U17" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V17" t="n">
         <v>3816.98692220683</v>
@@ -5594,28 +5594,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>754.331869609911</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M18" t="n">
-        <v>754.331869609911</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N18" t="n">
-        <v>1056.371818948615</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O18" t="n">
-        <v>1760.328909494509</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="P18" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q18" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>560.4150152508711</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="C19" t="n">
-        <v>560.4150152508711</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="D19" t="n">
-        <v>430.717281408466</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="E19" t="n">
-        <v>299.6033771114703</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="F19" t="n">
-        <v>299.6033771114703</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>299.6033771114703</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5697,28 +5697,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R19" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S19" t="n">
-        <v>1710.263578834478</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T19" t="n">
-        <v>1710.263578834478</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U19" t="n">
-        <v>1457.262342215287</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V19" t="n">
-        <v>1213.173507989494</v>
+        <v>937.361648975152</v>
       </c>
       <c r="W19" t="n">
-        <v>963.9007543330533</v>
+        <v>688.0888953187111</v>
       </c>
       <c r="X19" t="n">
-        <v>755.3538030274216</v>
+        <v>479.5419440130794</v>
       </c>
       <c r="Y19" t="n">
-        <v>560.4150152508711</v>
+        <v>284.6031562365289</v>
       </c>
     </row>
     <row r="20">
@@ -5734,16 +5734,16 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D20" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E20" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F20" t="n">
-        <v>809.8415093489452</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G20" t="n">
-        <v>430.9101360764623</v>
+        <v>430.9101360764629</v>
       </c>
       <c r="H20" t="n">
         <v>149.7985495388648</v>
@@ -5752,10 +5752,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5767,7 +5767,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O20" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P20" t="n">
         <v>4300.467232046283</v>
@@ -5791,10 +5791,10 @@
         <v>3816.98692220683</v>
       </c>
       <c r="W20" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X20" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y20" t="n">
         <v>2721.037282963096</v>
@@ -5837,22 +5837,22 @@
         <v>286.056555253256</v>
       </c>
       <c r="L21" t="n">
-        <v>874.0699105066985</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M21" t="n">
-        <v>874.0699105066985</v>
+        <v>286.056555253256</v>
       </c>
       <c r="N21" t="n">
-        <v>874.0699105066985</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O21" t="n">
-        <v>1578.027001052593</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>495.3517974336223</v>
+        <v>496.6452972821141</v>
       </c>
       <c r="C22" t="n">
-        <v>354.0553358300236</v>
+        <v>496.6452972821141</v>
       </c>
       <c r="D22" t="n">
-        <v>224.3576019876185</v>
+        <v>496.6452972821141</v>
       </c>
       <c r="E22" t="n">
-        <v>93.2436976906228</v>
+        <v>365.5313929851185</v>
       </c>
       <c r="F22" t="n">
-        <v>93.2436976906228</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="G22" t="n">
         <v>93.2436976906228</v>
@@ -5934,28 +5934,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R22" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S22" t="n">
-        <v>1644.203548008749</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T22" t="n">
-        <v>1550.101919957398</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U22" t="n">
-        <v>1550.101919957398</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V22" t="n">
-        <v>1306.013085731605</v>
+        <v>992.8374564650675</v>
       </c>
       <c r="W22" t="n">
-        <v>1056.740332075164</v>
+        <v>743.5647028086266</v>
       </c>
       <c r="X22" t="n">
-        <v>848.1933807695324</v>
+        <v>535.0177515029949</v>
       </c>
       <c r="Y22" t="n">
-        <v>653.2545929929819</v>
+        <v>535.0177515029949</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C23" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D23" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E23" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F23" t="n">
-        <v>809.8415093489459</v>
+        <v>809.8415093489452</v>
       </c>
       <c r="G23" t="n">
-        <v>430.9101360764629</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H23" t="n">
-        <v>149.7985495388658</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K23" t="n">
-        <v>885.5886702674168</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L23" t="n">
         <v>1598.180070079655</v>
@@ -6004,7 +6004,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O23" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P23" t="n">
         <v>4300.467232046283</v>
@@ -6019,22 +6019,22 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T23" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U23" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V23" t="n">
         <v>3816.98692220683</v>
       </c>
       <c r="W23" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X23" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y23" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>754.331869609911</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M24" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N24" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q24" t="n">
         <v>2139.732893541123</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>493.0470461511873</v>
+        <v>547.3179767581217</v>
       </c>
       <c r="C25" t="n">
-        <v>493.0470461511873</v>
+        <v>480.2054561326582</v>
       </c>
       <c r="D25" t="n">
-        <v>493.0470461511873</v>
+        <v>350.5077222902531</v>
       </c>
       <c r="E25" t="n">
-        <v>361.9331418541916</v>
+        <v>350.5077222902531</v>
       </c>
       <c r="F25" t="n">
-        <v>227.0989267994677</v>
+        <v>350.5077222902531</v>
       </c>
       <c r="G25" t="n">
-        <v>93.2436976906228</v>
+        <v>213.0542420504813</v>
       </c>
       <c r="H25" t="n">
         <v>93.2436976906228</v>
@@ -6171,28 +6171,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R25" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S25" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T25" t="n">
-        <v>1800.798405294154</v>
+        <v>1646.522384595457</v>
       </c>
       <c r="U25" t="n">
-        <v>1547.797168674963</v>
+        <v>1393.521147976266</v>
       </c>
       <c r="V25" t="n">
-        <v>1303.70833444917</v>
+        <v>1149.432313750473</v>
       </c>
       <c r="W25" t="n">
-        <v>1054.435580792729</v>
+        <v>900.1595600940318</v>
       </c>
       <c r="X25" t="n">
-        <v>845.8886294870973</v>
+        <v>900.1595600940318</v>
       </c>
       <c r="Y25" t="n">
-        <v>650.9498417105468</v>
+        <v>705.2207723174813</v>
       </c>
     </row>
     <row r="26">
@@ -6253,10 +6253,10 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4556.700720159924</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T26" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U26" t="n">
         <v>4137.027566035664</v>
@@ -6305,28 +6305,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M27" t="n">
-        <v>562.1177108836107</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N27" t="n">
-        <v>1435.775802995229</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1964.656875926373</v>
       </c>
       <c r="Q27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>832.7027105453667</v>
+        <v>437.0568573512421</v>
       </c>
       <c r="C28" t="n">
-        <v>832.7027105453667</v>
+        <v>437.0568573512421</v>
       </c>
       <c r="D28" t="n">
-        <v>703.0049767029616</v>
+        <v>437.0568573512421</v>
       </c>
       <c r="E28" t="n">
-        <v>571.8910724059659</v>
+        <v>437.0568573512421</v>
       </c>
       <c r="F28" t="n">
         <v>437.0568573512421</v>
@@ -6411,25 +6411,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S28" t="n">
-        <v>1644.203548008749</v>
+        <v>1796.657249123462</v>
       </c>
       <c r="T28" t="n">
-        <v>1644.203548008749</v>
+        <v>1586.905420934849</v>
       </c>
       <c r="U28" t="n">
-        <v>1644.203548008749</v>
+        <v>1333.904184315658</v>
       </c>
       <c r="V28" t="n">
-        <v>1485.46120328399</v>
+        <v>1089.815350089865</v>
       </c>
       <c r="W28" t="n">
-        <v>1236.188449627549</v>
+        <v>840.5425964334243</v>
       </c>
       <c r="X28" t="n">
-        <v>1027.641498321917</v>
+        <v>631.9956451277925</v>
       </c>
       <c r="Y28" t="n">
-        <v>832.7027105453667</v>
+        <v>437.0568573512421</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2340.61301413329</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C29" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D29" t="n">
         <v>1585.618315208991</v>
       </c>
       <c r="E29" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F29" t="n">
-        <v>809.8415093489448</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G29" t="n">
-        <v>430.9101360764619</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H29" t="n">
-        <v>149.7985495388647</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6505,10 +6505,10 @@
         <v>3463.023532176684</v>
       </c>
       <c r="X29" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y29" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>212.9817385874103</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>874.0699105066985</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M30" t="n">
-        <v>874.0699105066985</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N30" t="n">
-        <v>874.0699105066985</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O30" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q30" t="n">
         <v>2139.732893541123</v>
@@ -6597,46 +6597,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>973.999172148965</v>
+        <v>973.9991721489654</v>
       </c>
       <c r="C31" t="n">
-        <v>832.7027105453665</v>
+        <v>832.7027105453667</v>
       </c>
       <c r="D31" t="n">
-        <v>703.0049767029614</v>
+        <v>703.0049767029616</v>
       </c>
       <c r="E31" t="n">
-        <v>571.8910724059657</v>
+        <v>571.8910724059659</v>
       </c>
       <c r="F31" t="n">
-        <v>437.0568573512419</v>
+        <v>437.0568573512421</v>
       </c>
       <c r="G31" t="n">
-        <v>299.6033771114702</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="H31" t="n">
-        <v>179.7928327516117</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K31" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L31" t="n">
-        <v>609.3875320253559</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M31" t="n">
-        <v>927.8555407749238</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N31" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O31" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P31" t="n">
         <v>1761.542230672484</v>
@@ -6648,25 +6648,25 @@
         <v>1856.27421278407</v>
       </c>
       <c r="S31" t="n">
-        <v>1856.27421278407</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T31" t="n">
-        <v>1856.27421278407</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U31" t="n">
-        <v>1856.27421278407</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="V31" t="n">
-        <v>1784.660460446947</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="W31" t="n">
-        <v>1535.387706790507</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="X31" t="n">
         <v>1326.840755484875</v>
       </c>
       <c r="Y31" t="n">
-        <v>1131.901967708324</v>
+        <v>1131.901967708325</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2340.613014133291</v>
+        <v>2340.61301413329</v>
       </c>
       <c r="C32" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D32" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.61831520899</v>
       </c>
       <c r="E32" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F32" t="n">
         <v>809.8415093489448</v>
@@ -6697,13 +6697,13 @@
         <v>149.7985495388648</v>
       </c>
       <c r="I32" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="J32" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K32" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L32" t="n">
         <v>1598.180070079655</v>
@@ -6715,7 +6715,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O32" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P32" t="n">
         <v>4300.467232046283</v>
@@ -6724,7 +6724,7 @@
         <v>4621.628238841575</v>
       </c>
       <c r="R32" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531139</v>
       </c>
       <c r="S32" t="n">
         <v>4556.700720159924</v>
@@ -6736,7 +6736,7 @@
         <v>4137.027566035664</v>
       </c>
       <c r="V32" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W32" t="n">
         <v>3463.023532176683</v>
@@ -6770,34 +6770,34 @@
         <v>291.7296147203278</v>
       </c>
       <c r="G33" t="n">
-        <v>184.7395020346666</v>
+        <v>184.7395020346665</v>
       </c>
       <c r="H33" t="n">
         <v>113.9922890703826</v>
       </c>
       <c r="I33" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>1210.13812587521</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M33" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N33" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O33" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q33" t="n">
         <v>2139.732893541123</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>973.9991721489654</v>
+        <v>746.1535754843777</v>
       </c>
       <c r="C34" t="n">
-        <v>832.7027105453667</v>
+        <v>746.1535754843777</v>
       </c>
       <c r="D34" t="n">
-        <v>703.0049767029616</v>
+        <v>616.4558416419726</v>
       </c>
       <c r="E34" t="n">
-        <v>571.8910724059659</v>
+        <v>485.3419373449769</v>
       </c>
       <c r="F34" t="n">
-        <v>437.0568573512421</v>
+        <v>350.507722290253</v>
       </c>
       <c r="G34" t="n">
-        <v>299.6033771114703</v>
+        <v>213.0542420504813</v>
       </c>
       <c r="H34" t="n">
-        <v>179.7928327516118</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="I34" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="J34" t="n">
         <v>136.5301994049079</v>
@@ -6885,25 +6885,25 @@
         <v>1856.27421278407</v>
       </c>
       <c r="S34" t="n">
-        <v>1856.27421278407</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T34" t="n">
-        <v>1646.522384595457</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U34" t="n">
-        <v>1393.521147976266</v>
+        <v>1393.728148792353</v>
       </c>
       <c r="V34" t="n">
-        <v>1149.432313750473</v>
+        <v>1149.63931456656</v>
       </c>
       <c r="W34" t="n">
-        <v>1149.432313750473</v>
+        <v>1149.63931456656</v>
       </c>
       <c r="X34" t="n">
-        <v>1149.432313750473</v>
+        <v>941.0923632609282</v>
       </c>
       <c r="Y34" t="n">
-        <v>973.9991721489654</v>
+        <v>746.1535754843777</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2340.61301413329</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C35" t="n">
         <v>1960.285334281245</v>
       </c>
       <c r="D35" t="n">
-        <v>1585.61831520899</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E35" t="n">
         <v>1201.075010560572</v>
@@ -6931,16 +6931,16 @@
         <v>430.9101360764616</v>
       </c>
       <c r="H35" t="n">
-        <v>149.7985495388647</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -6952,7 +6952,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O35" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P35" t="n">
         <v>4300.467232046283</v>
@@ -6970,19 +6970,19 @@
         <v>4364.291146941468</v>
       </c>
       <c r="U35" t="n">
-        <v>4137.027566035663</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V35" t="n">
-        <v>3816.986922206828</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W35" t="n">
-        <v>3463.023532176682</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X35" t="n">
-        <v>3092.177045180319</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y35" t="n">
-        <v>2721.037282963094</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>1210.13812587521</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.13812587521</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N36" t="n">
-        <v>1210.13812587521</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O36" t="n">
-        <v>1914.095216421104</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q36" t="n">
         <v>2139.732893541123</v>
@@ -7071,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>973.999172148965</v>
+        <v>844.3014383065603</v>
       </c>
       <c r="C37" t="n">
-        <v>832.7027105453665</v>
+        <v>703.0049767029616</v>
       </c>
       <c r="D37" t="n">
-        <v>703.0049767029614</v>
+        <v>703.0049767029616</v>
       </c>
       <c r="E37" t="n">
-        <v>571.8910724059657</v>
+        <v>571.8910724059659</v>
       </c>
       <c r="F37" t="n">
-        <v>437.0568573512419</v>
+        <v>437.0568573512421</v>
       </c>
       <c r="G37" t="n">
-        <v>299.6033771114702</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="H37" t="n">
-        <v>179.7928327516117</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K37" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L37" t="n">
-        <v>609.3875320253559</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M37" t="n">
-        <v>927.8555407749238</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N37" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O37" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P37" t="n">
         <v>1761.542230672484</v>
@@ -7122,25 +7122,25 @@
         <v>1856.27421278407</v>
       </c>
       <c r="S37" t="n">
-        <v>1784.660460446947</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T37" t="n">
-        <v>1784.660460446947</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="U37" t="n">
-        <v>1784.660460446947</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="V37" t="n">
-        <v>1784.660460446947</v>
+        <v>1654.962726604543</v>
       </c>
       <c r="W37" t="n">
-        <v>1535.387706790507</v>
+        <v>1405.689972948102</v>
       </c>
       <c r="X37" t="n">
-        <v>1326.840755484875</v>
+        <v>1197.14302164247</v>
       </c>
       <c r="Y37" t="n">
-        <v>1131.901967708324</v>
+        <v>1002.20423386592</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2340.613014133291</v>
+        <v>2340.613014133292</v>
       </c>
       <c r="C38" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281247</v>
       </c>
       <c r="D38" t="n">
         <v>1585.618315208992</v>
       </c>
       <c r="E38" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560574</v>
       </c>
       <c r="F38" t="n">
-        <v>809.8415093489457</v>
+        <v>809.8415093489461</v>
       </c>
       <c r="G38" t="n">
         <v>430.9101360764625</v>
@@ -7174,10 +7174,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674165</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7189,7 +7189,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O38" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P38" t="n">
         <v>4300.467232046283</v>
@@ -7207,16 +7207,16 @@
         <v>4364.291146941469</v>
       </c>
       <c r="U38" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V38" t="n">
         <v>3816.98692220683</v>
       </c>
       <c r="W38" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X38" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y38" t="n">
         <v>2721.037282963096</v>
@@ -7259,19 +7259,19 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>741.8628115185547</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M39" t="n">
-        <v>741.8628115185547</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N39" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q39" t="n">
         <v>2139.732893541123</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>479.5419440130801</v>
+        <v>630.1860124883459</v>
       </c>
       <c r="C40" t="n">
-        <v>479.5419440130801</v>
+        <v>488.8895508847473</v>
       </c>
       <c r="D40" t="n">
-        <v>361.8110822273901</v>
+        <v>359.1918170423422</v>
       </c>
       <c r="E40" t="n">
-        <v>230.6971779303945</v>
+        <v>228.0779127453466</v>
       </c>
       <c r="F40" t="n">
-        <v>230.6971779303945</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
         <v>93.2436976906228</v>
@@ -7356,28 +7356,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R40" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S40" t="n">
-        <v>1644.20354800875</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T40" t="n">
-        <v>1434.451719820137</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="U40" t="n">
-        <v>1181.450483200946</v>
+        <v>1603.272976164879</v>
       </c>
       <c r="V40" t="n">
-        <v>937.3616489751525</v>
+        <v>1359.184141939086</v>
       </c>
       <c r="W40" t="n">
-        <v>688.0888953187118</v>
+        <v>1109.911388282645</v>
       </c>
       <c r="X40" t="n">
-        <v>479.5419440130801</v>
+        <v>901.3644369770135</v>
       </c>
       <c r="Y40" t="n">
-        <v>479.5419440130801</v>
+        <v>788.0888080477055</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2324.444211508952</v>
+        <v>2549.191389976084</v>
       </c>
       <c r="C41" t="n">
         <v>2139.066799289355</v>
@@ -7399,13 +7399,13 @@
         <v>1320.262653899312</v>
       </c>
       <c r="F41" t="n">
-        <v>899.2322418529996</v>
+        <v>899.2322418529993</v>
       </c>
       <c r="G41" t="n">
-        <v>490.5039577458317</v>
+        <v>490.5039577458315</v>
       </c>
       <c r="H41" t="n">
-        <v>179.5954603735497</v>
+        <v>179.5954603735496</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
@@ -7438,25 +7438,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4526.90380932524</v>
+        <v>4573.214074014465</v>
       </c>
       <c r="T41" t="n">
-        <v>4526.90380932524</v>
+        <v>4351.007589961324</v>
       </c>
       <c r="U41" t="n">
-        <v>4269.84331758475</v>
+        <v>4093.947098220835</v>
       </c>
       <c r="V41" t="n">
-        <v>3920.005762921231</v>
+        <v>3744.109543557315</v>
       </c>
       <c r="W41" t="n">
-        <v>3536.245462056399</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="X41" t="n">
-        <v>3135.602064225352</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y41" t="n">
-        <v>2734.665391173442</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M42" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N42" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O42" t="n">
-        <v>1548.467481689963</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P42" t="n">
-        <v>2110.173374178493</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q42" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R42" t="n">
         <v>2139.732893541123</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>749.3736558270855</v>
+        <v>380.6831160245802</v>
       </c>
       <c r="C43" t="n">
-        <v>578.280283388802</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="D43" t="n">
-        <v>418.7856387117121</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="E43" t="n">
-        <v>257.8748235800315</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="F43" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G43" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H43" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I43" t="n">
         <v>93.2436976906228</v>
@@ -7596,25 +7596,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T43" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U43" t="n">
-        <v>1339.844446857597</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="V43" t="n">
-        <v>1339.844446857597</v>
+        <v>879.5669336770293</v>
       </c>
       <c r="W43" t="n">
-        <v>1060.774782366472</v>
+        <v>793.1185210298598</v>
       </c>
       <c r="X43" t="n">
-        <v>1060.774782366472</v>
+        <v>793.1185210298598</v>
       </c>
       <c r="Y43" t="n">
-        <v>937.0733622211299</v>
+        <v>568.3828224186245</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455812</v>
       </c>
       <c r="C44" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769082</v>
       </c>
       <c r="D44" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E44" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F44" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700725</v>
       </c>
       <c r="G44" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H44" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
@@ -7651,7 +7651,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
         <v>1598.180070079655</v>
@@ -7678,22 +7678,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>4269.84331758475</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V44" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W44" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X44" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y44" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M45" t="n">
-        <v>936.2207783851894</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N45" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O45" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P45" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q45" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
         <v>2139.732893541123</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>548.5451751656769</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C46" t="n">
-        <v>413.6491574993933</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D46" t="n">
-        <v>254.1545128223033</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E46" t="n">
         <v>93.2436976906228</v>
@@ -7830,28 +7830,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S46" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T46" t="n">
-        <v>1622.642594311473</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="U46" t="n">
-        <v>1339.844446857597</v>
+        <v>1015.022989509699</v>
       </c>
       <c r="V46" t="n">
-        <v>1065.958701797119</v>
+        <v>741.1372444492208</v>
       </c>
       <c r="W46" t="n">
-        <v>786.8890373059935</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X46" t="n">
-        <v>548.5451751656769</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y46" t="n">
-        <v>548.5451751656769</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>516.2162236769911</v>
       </c>
       <c r="L2" t="n">
-        <v>522.5652320666168</v>
+        <v>522.5652320666189</v>
       </c>
       <c r="M2" t="n">
-        <v>520.3700584608174</v>
+        <v>308.0697739668541</v>
       </c>
       <c r="N2" t="n">
-        <v>519.9921247603912</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>503.0138587607157</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,22 +8060,22 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>482.9056167883873</v>
+        <v>482.9056167883895</v>
       </c>
       <c r="L3" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>316.4713911708122</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>484.8313130037719</v>
+        <v>484.8313130037741</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>313.1667424352028</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>249.8886267436438</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,25 +8297,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>527.2265162238739</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>232.5803491573234</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
         <v>88.85829947169823</v>
@@ -8452,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
         <v>617.5489684328704</v>
@@ -8464,13 +8464,13 @@
         <v>615.3537948270711</v>
       </c>
       <c r="N8" t="n">
-        <v>593.882383535937</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O8" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>337.8664545776218</v>
       </c>
       <c r="Q8" t="n">
         <v>90.03380439915205</v>
@@ -8534,28 +8534,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>203.4176284083942</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>528.8634714130247</v>
       </c>
       <c r="P9" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8768,31 +8768,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M12" t="n">
-        <v>859.0058187811131</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
         <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8938,7 +8938,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>853.701196452193</v>
+        <v>853.7011964521931</v>
       </c>
       <c r="O14" t="n">
         <v>743.321953824879</v>
@@ -8947,7 +8947,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
         <v>128.2784515920617</v>
@@ -9005,31 +9005,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M15" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>144.2828090848182</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9175,7 +9175,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N17" t="n">
-        <v>853.701196452193</v>
+        <v>853.7011964521931</v>
       </c>
       <c r="O17" t="n">
         <v>743.321953824879</v>
@@ -9184,7 +9184,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q17" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
         <v>128.2784515920617</v>
@@ -9242,10 +9242,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
         <v>723.8803540323523</v>
@@ -9254,19 +9254,19 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>358.2842513116329</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>445.1055394667395</v>
       </c>
       <c r="Q18" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9485,13 +9485,13 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>650.0674079052355</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>53.19339339374999</v>
+        <v>263.9099299663046</v>
       </c>
       <c r="O21" t="n">
         <v>768.8192472281761</v>
@@ -9500,10 +9500,10 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
         <v>632.7318453389136</v>
@@ -9716,28 +9716,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M24" t="n">
-        <v>745.8914891781321</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>203.6789803756668</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,13 +10190,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>176.7732988419765</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M30" t="n">
         <v>57.56428373841742</v>
@@ -10205,13 +10205,13 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10372,7 +10372,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R32" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920609</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,16 +10427,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M33" t="n">
-        <v>429.1692081600164</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
         <v>53.19339339374999</v>
@@ -10448,7 +10448,7 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10609,7 +10609,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M36" t="n">
         <v>57.56428373841742</v>
@@ -10679,13 +10679,13 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>282.1764805785802</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10840,7 +10840,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P38" t="n">
-        <v>628.1510783507342</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q38" t="n">
         <v>414.4388617681339</v>
@@ -10907,22 +10907,22 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M39" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>754.1156070065518</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11071,7 +11071,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
-        <v>853.7011964521931</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
         <v>743.321953824879</v>
@@ -11083,7 +11083,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>676.1824924391651</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
         <v>815.2746908024792</v>
@@ -11317,7 +11317,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R44" t="n">
         <v>128.2784515920617</v>
@@ -11375,22 +11375,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>86.34977678504856</v>
       </c>
       <c r="O45" t="n">
-        <v>361.079260496652</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P45" t="n">
         <v>54.25963500280375</v>
@@ -11399,7 +11399,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>156.3237676037659</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>128.400756503981</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F13" t="n">
-        <v>133.4858729041766</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.93220772587561</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>112.6966951802605</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="14">
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>139.8834969875627</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>63.14240295395798</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>24.55523815812907</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X16" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>139.8834969875627</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F19" t="n">
-        <v>133.4858729041767</v>
+        <v>100.3637765474956</v>
       </c>
       <c r="G19" t="n">
         <v>136.078945437374</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>10.47838110245553</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>118.335037925094</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>118.6124389162599</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>114.4936981358891</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="23">
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>139.8834969875627</v>
+        <v>73.44210156835381</v>
       </c>
       <c r="D25" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G25" t="n">
-        <v>3.562268619617555</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>85.6836437103791</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S25" t="n">
         <v>155.0289087125508</v>
       </c>
       <c r="T25" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>139.8834969875627</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>150.9291641035659</v>
       </c>
       <c r="T28" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>84.49302460602337</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.92104941501629</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S31" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>250.471224252999</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V31" t="n">
-        <v>170.7503310697838</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>45.00557768565088</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>156.323767603766</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>54.92104941501635</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S34" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>155.2338395204776</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>246.7800261198764</v>
       </c>
       <c r="X34" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.31058971329287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>54.92104941501629</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S37" t="n">
-        <v>84.13129389879941</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>207.6543099067269</v>
       </c>
       <c r="U37" t="n">
-        <v>250.471224252999</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V37" t="n">
-        <v>241.6479458835352</v>
+        <v>197.3784832783546</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>156.3237676037659</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>139.8834969875626</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>11.84720333614797</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>133.4858729041766</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H40" t="n">
-        <v>118.6124389162599</v>
+        <v>118.6124389162598</v>
       </c>
       <c r="I40" t="n">
         <v>85.68364371037904</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>54.92104941501628</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>192.9893998987849</v>
+        <v>80.84652725876994</v>
       </c>
     </row>
     <row r="41">
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>222.4997066824612</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>45.84716204233219</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>165.577887163712</v>
@@ -25806,7 +25806,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>237.1532516330649</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>190.6950393255166</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>100.0239356812347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>356.9958808389723</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.4882450560975</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,13 +25918,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>222.4997066824607</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26025,13 +26025,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>35.83538122427987</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>93.31312169923874</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>531196.0090710326</v>
+        <v>531196.0090710327</v>
       </c>
     </row>
     <row r="3">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>547184.5433115399</v>
+        <v>547184.5433115398</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>547184.5433115399</v>
+        <v>547184.5433115398</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>547184.5433115398</v>
+        <v>547184.5433115399</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>547184.5433115398</v>
+        <v>547184.5433115399</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>508109.2303372371</v>
+        <v>508109.2303372372</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>651529.5721298277</v>
+      </c>
+      <c r="C2" t="n">
         <v>651529.572129828</v>
-      </c>
-      <c r="C2" t="n">
-        <v>651529.5721298284</v>
       </c>
       <c r="D2" t="n">
         <v>651529.572129828</v>
       </c>
       <c r="E2" t="n">
-        <v>631397.752369257</v>
+        <v>631397.7523692575</v>
       </c>
       <c r="F2" t="n">
         <v>631397.7523692576</v>
       </c>
       <c r="G2" t="n">
+        <v>631397.7523692573</v>
+      </c>
+      <c r="H2" t="n">
         <v>631397.7523692574</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>631397.7523692573</v>
+      </c>
+      <c r="J2" t="n">
+        <v>631397.7523692573</v>
+      </c>
+      <c r="K2" t="n">
         <v>631397.7523692575</v>
       </c>
-      <c r="I2" t="n">
-        <v>631397.7523692575</v>
-      </c>
-      <c r="J2" t="n">
-        <v>631397.7523692575</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>631397.7523692574</v>
+      </c>
+      <c r="M2" t="n">
+        <v>631397.7523692576</v>
+      </c>
+      <c r="N2" t="n">
         <v>631397.7523692573</v>
       </c>
-      <c r="L2" t="n">
-        <v>631397.752369257</v>
-      </c>
-      <c r="M2" t="n">
-        <v>631397.7523692572</v>
-      </c>
-      <c r="N2" t="n">
-        <v>631397.7523692574</v>
-      </c>
       <c r="O2" t="n">
-        <v>579297.3350701877</v>
+        <v>579297.3350701876</v>
       </c>
       <c r="P2" t="n">
-        <v>579297.3350701878</v>
+        <v>579297.3350701875</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>143124.275210846</v>
+        <v>143124.2752108468</v>
       </c>
       <c r="C3" t="n">
-        <v>30686.46086668872</v>
+        <v>30686.46086668802</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>135342.0294691533</v>
+        <v>135342.0294691538</v>
       </c>
       <c r="K3" t="n">
-        <v>24445.77426110997</v>
+        <v>24445.77426110941</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26401,7 +26401,7 @@
         <v>160358.4505006828</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>223266.211330834</v>
+        <v>223266.2113308335</v>
       </c>
       <c r="C4" t="n">
         <v>203402.6837676921</v>
@@ -26426,7 +26426,7 @@
         <v>203402.6837676921</v>
       </c>
       <c r="E4" t="n">
-        <v>104184.3863816103</v>
+        <v>104184.3863816102</v>
       </c>
       <c r="F4" t="n">
         <v>104184.3863816102</v>
@@ -26444,22 +26444,22 @@
         <v>104184.3863816102</v>
       </c>
       <c r="K4" t="n">
-        <v>104184.3863816103</v>
+        <v>104184.3863816102</v>
       </c>
       <c r="L4" t="n">
         <v>104184.3863816102</v>
       </c>
       <c r="M4" t="n">
-        <v>104184.3863816103</v>
+        <v>104184.3863816102</v>
       </c>
       <c r="N4" t="n">
         <v>104184.3863816103</v>
       </c>
       <c r="O4" t="n">
-        <v>74374.35696474132</v>
+        <v>74374.35696474137</v>
       </c>
       <c r="P4" t="n">
-        <v>74374.35696474131</v>
+        <v>74374.35696474135</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59594.05390742933</v>
+        <v>59594.05390742946</v>
       </c>
       <c r="C5" t="n">
         <v>65369.06507849755</v>
@@ -26478,7 +26478,7 @@
         <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
-        <v>73345.15677686484</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="F5" t="n">
         <v>73345.15677686482</v>
@@ -26496,13 +26496,13 @@
         <v>73345.15677686482</v>
       </c>
       <c r="K5" t="n">
-        <v>73345.15677686484</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="L5" t="n">
+        <v>73345.15677686481</v>
+      </c>
+      <c r="M5" t="n">
         <v>73345.15677686482</v>
-      </c>
-      <c r="M5" t="n">
-        <v>73345.15677686484</v>
       </c>
       <c r="N5" t="n">
         <v>73345.15677686484</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>225545.0316807187</v>
+        <v>225545.0316807179</v>
       </c>
       <c r="C6" t="n">
-        <v>352071.3624169501</v>
+        <v>352071.3624169503</v>
       </c>
       <c r="D6" t="n">
         <v>382757.8232836384</v>
       </c>
       <c r="E6" t="n">
-        <v>238139.2929302683</v>
+        <v>238088.9633808674</v>
       </c>
       <c r="F6" t="n">
-        <v>453868.2092107826</v>
+        <v>453817.8796613811</v>
       </c>
       <c r="G6" t="n">
-        <v>453868.2092107824</v>
+        <v>453817.8796613808</v>
       </c>
       <c r="H6" t="n">
-        <v>453868.2092107825</v>
+        <v>453817.8796613808</v>
       </c>
       <c r="I6" t="n">
-        <v>453868.2092107825</v>
+        <v>453817.8796613808</v>
       </c>
       <c r="J6" t="n">
-        <v>318526.1797416291</v>
+        <v>318475.8501922269</v>
       </c>
       <c r="K6" t="n">
-        <v>429422.4349496722</v>
+        <v>429372.1054002716</v>
       </c>
       <c r="L6" t="n">
-        <v>453868.209210782</v>
+        <v>453817.8796613809</v>
       </c>
       <c r="M6" t="n">
-        <v>293509.7587100993</v>
+        <v>293459.4291606983</v>
       </c>
       <c r="N6" t="n">
-        <v>453868.2092107823</v>
+        <v>453817.8796613807</v>
       </c>
       <c r="O6" t="n">
-        <v>434057.7678605731</v>
+        <v>433877.1872679238</v>
       </c>
       <c r="P6" t="n">
-        <v>434057.7678605732</v>
+        <v>433877.1872679237</v>
       </c>
     </row>
   </sheetData>
@@ -26694,13 +26694,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H2" t="n">
         <v>29.498941726338</v>
@@ -26709,25 +26709,25 @@
         <v>29.498941726338</v>
       </c>
       <c r="J2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K2" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M2" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N2" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.0798340037719</v>
+        <v>427.0798340037741</v>
       </c>
       <c r="C4" t="n">
         <v>522.0635703700256</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26943,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.0798340037719</v>
+        <v>427.0798340037741</v>
       </c>
       <c r="C4" t="n">
-        <v>94.98373636625365</v>
+        <v>94.98373636625149</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.0798340037719</v>
+        <v>427.0798340037741</v>
       </c>
       <c r="K4" t="n">
-        <v>94.98373636625365</v>
+        <v>94.98373636625149</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.4826507627594</v>
+        <v>643.4826507627597</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.0798340037719</v>
+        <v>427.0798340037741</v>
       </c>
       <c r="K4" t="n">
-        <v>94.98373636625365</v>
+        <v>94.98373636625149</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27381,19 +27381,19 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>97.58637460537108</v>
+        <v>386.8081059739486</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
@@ -27441,13 +27441,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -27460,7 +27460,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>115.7281862028015</v>
@@ -27469,16 +27469,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>74.59514724652307</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>13.31946756197735</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,10 +27508,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27542,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,16 +27587,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>133.92501738488</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>248.5962573415243</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>11.75949205792756</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>159.7888991190032</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.0604680377048</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27824,16 +27824,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>93.42449318090709</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>220.1620625474624</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27864,10 +27864,10 @@
         <v>400</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>69.22918962841442</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>45.62226398710935</v>
       </c>
       <c r="F10" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>27.60291718549331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="R13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="S13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="R16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="S16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633742</v>
       </c>
       <c r="W17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="R19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="S19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="20">
@@ -29058,7 +29058,7 @@
         <v>29.498941726338</v>
       </c>
       <c r="I23" t="n">
-        <v>29.49894172633704</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="R28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="S28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C29" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D29" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E29" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F29" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G29" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H29" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I29" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T29" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U29" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V29" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W29" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X29" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y29" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="R31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="S31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="R34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="S34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C35" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D35" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E35" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F35" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G35" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H35" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I35" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T35" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U35" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V35" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W35" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X35" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y35" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="R37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="S37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="C38" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="D38" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="E38" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="F38" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="G38" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="H38" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="I38" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="T38" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="U38" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="V38" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="W38" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="X38" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="Y38" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633806</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="C40" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="D40" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="E40" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="F40" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="G40" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="H40" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="I40" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="J40" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="K40" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="L40" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="M40" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="N40" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="O40" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="P40" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="R40" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="S40" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="T40" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="U40" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="V40" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="W40" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="X40" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633806</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
     </row>
     <row r="42">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
     </row>
     <row r="45">
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>427.0798340037741</v>
       </c>
       <c r="L2" t="n">
-        <v>427.0798340037719</v>
+        <v>427.0798340037741</v>
       </c>
       <c r="M2" t="n">
-        <v>427.0798340037719</v>
+        <v>214.7795495098087</v>
       </c>
       <c r="N2" t="n">
-        <v>427.0798340037719</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>409.8240831349326</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>427.0798340037719</v>
+        <v>427.0798340037741</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>258.9071074323948</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>427.0798340037719</v>
+        <v>427.0798340037741</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>258.907107432399</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>176.5650354103358</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>400.9092955204429</v>
+      </c>
+      <c r="P5" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M5" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="N5" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>471.1119924130248</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>179.3869557635734</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N6" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O6" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
         <v>29.85810036629282</v>
@@ -35172,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>522.0635703700256</v>
@@ -35184,13 +35184,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N8" t="n">
-        <v>500.9700927793177</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,28 +35254,28 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>147.5918456237788</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700256</v>
+        <v>471.1119924130247</v>
       </c>
       <c r="P9" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q9" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M12" t="n">
-        <v>801.4415350426957</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>43.72373910533858</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K13" t="n">
-        <v>185.612404072033</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L13" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M13" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N13" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O13" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P13" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.68887081978335</v>
+        <v>95.68887081978328</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35658,7 +35658,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>760.7889056955737</v>
+        <v>760.7889056955738</v>
       </c>
       <c r="O14" t="n">
         <v>650.1321781990958</v>
@@ -35667,7 +35667,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
         <v>40.9663087773382</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>91.08941569106823</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35825,7 +35825,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q16" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978328</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35895,7 +35895,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N17" t="n">
-        <v>760.7889056955737</v>
+        <v>760.7889056955738</v>
       </c>
       <c r="O17" t="n">
         <v>650.1321781990958</v>
@@ -35904,7 +35904,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q17" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
         <v>40.9663087773382</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
         <v>667.7658302215033</v>
@@ -35974,19 +35974,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>305.0908579178829</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>390.8459044639358</v>
       </c>
       <c r="Q18" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36062,7 +36062,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q19" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978328</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36205,13 +36205,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>593.9528840943865</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>210.7165365725546</v>
       </c>
       <c r="O21" t="n">
         <v>711.0677682281761</v>
@@ -36220,10 +36220,10 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K23" t="n">
         <v>543.5954556656965</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M24" t="n">
-        <v>688.3272054397147</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>146.9863618708281</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36773,7 +36773,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q28" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978328</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>120.9475160573611</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36925,13 +36925,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>43.72373910533858</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K31" t="n">
-        <v>185.612404072033</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L31" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M31" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N31" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O31" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P31" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q31" t="n">
-        <v>95.68887081978335</v>
+        <v>95.68887081978328</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R32" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733737</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M33" t="n">
-        <v>371.6049244215989</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37247,7 +37247,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q34" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978328</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37399,13 +37399,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>227.9168455757764</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>43.72373910533858</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K37" t="n">
-        <v>185.612404072033</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L37" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M37" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N37" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O37" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P37" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q37" t="n">
-        <v>95.68887081978335</v>
+        <v>95.68887081978328</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37560,7 +37560,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P38" t="n">
-        <v>534.5017150698501</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q38" t="n">
         <v>324.4050573689818</v>
@@ -37627,22 +37627,22 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>700.9222136128019</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37791,7 +37791,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
-        <v>760.7889056955738</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
         <v>650.1321781990958</v>
@@ -37803,7 +37803,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>618.4310134391651</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
         <v>719.7892927396343</v>
@@ -38037,7 +38037,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R44" t="n">
         <v>40.9663087773382</v>
@@ -38095,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>882.4829213248665</v>
+        <v>33.15638339129857</v>
       </c>
       <c r="O45" t="n">
-        <v>303.327781496652</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
